--- a/設計書/画面レイアウト/会員登録.xlsx
+++ b/設計書/画面レイアウト/会員登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735FCD1E-7B15-4ACA-A43B-F196058D1EA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BDE3D2-5959-475A-B98F-F7517ED64516}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -678,43 +678,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>学校名、学科、学年、年齢、出身地、自己紹介を任意で入力</t>
-    <rPh sb="0" eb="2">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガッカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガクネン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュッシン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>それぞれに対応するポイントを付与</t>
     <rPh sb="5" eb="7">
       <t>タイオウ</t>
@@ -777,6 +740,63 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学籍番号が７桁でない場合、またはパスワード再入力が一致しない場合</t>
+  </si>
+  <si>
+    <t>→⑭にエラーメッセージを表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成功時</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学校名、学科、学年、年齢、出身地、自己紹介は任意で入力</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュッシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -988,7 +1008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,29 +1059,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1080,6 +1106,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1123,35 +1158,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1620,8 +1637,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="437000" y="1604995"/>
-          <a:ext cx="1381409" cy="3023550"/>
+          <a:off x="438857" y="1626347"/>
+          <a:ext cx="1390693" cy="3182300"/>
           <a:chOff x="453036" y="1779780"/>
           <a:chExt cx="1210588" cy="3048714"/>
         </a:xfrm>
@@ -2135,8 +2152,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="890932" y="6580486"/>
-          <a:ext cx="1180969" cy="539177"/>
+          <a:off x="896502" y="6869206"/>
+          <a:ext cx="1188396" cy="564243"/>
           <a:chOff x="824211" y="6088897"/>
           <a:chExt cx="1184037" cy="539177"/>
         </a:xfrm>
@@ -2260,8 +2277,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3000633" y="6586208"/>
-          <a:ext cx="1216248" cy="529197"/>
+          <a:off x="3019200" y="6874928"/>
+          <a:ext cx="1221818" cy="554263"/>
           <a:chOff x="3049715" y="6087717"/>
           <a:chExt cx="1184038" cy="529197"/>
         </a:xfrm>
@@ -2976,8 +2993,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2274488" y="2332819"/>
-          <a:ext cx="218120" cy="209490"/>
+          <a:off x="2289342" y="2395947"/>
+          <a:ext cx="218120" cy="217845"/>
           <a:chOff x="4046389" y="2537568"/>
           <a:chExt cx="310371" cy="303829"/>
         </a:xfrm>
@@ -3101,8 +3118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3206713" y="2339022"/>
-          <a:ext cx="251541" cy="209490"/>
+          <a:off x="3227137" y="2402150"/>
+          <a:ext cx="251541" cy="217845"/>
           <a:chOff x="4046389" y="2537568"/>
           <a:chExt cx="310371" cy="303829"/>
         </a:xfrm>
@@ -3409,8 +3426,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4335452" y="1719327"/>
-          <a:ext cx="488319" cy="211335"/>
+          <a:off x="4361446" y="1749034"/>
+          <a:ext cx="490176" cy="219690"/>
           <a:chOff x="4378157" y="1715613"/>
           <a:chExt cx="493518" cy="213006"/>
         </a:xfrm>
@@ -3539,8 +3556,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4338795" y="2008977"/>
-          <a:ext cx="488319" cy="211335"/>
+          <a:off x="4364789" y="2055395"/>
+          <a:ext cx="490176" cy="219690"/>
           <a:chOff x="4378157" y="1715613"/>
           <a:chExt cx="493518" cy="213006"/>
         </a:xfrm>
@@ -3669,8 +3686,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4345479" y="2617240"/>
-          <a:ext cx="488319" cy="211335"/>
+          <a:off x="4371473" y="2697079"/>
+          <a:ext cx="490176" cy="219690"/>
           <a:chOff x="4378157" y="1715613"/>
           <a:chExt cx="493518" cy="213006"/>
         </a:xfrm>
@@ -3799,8 +3816,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4337459" y="2283364"/>
-          <a:ext cx="488319" cy="209664"/>
+          <a:off x="4363453" y="2338137"/>
+          <a:ext cx="490176" cy="226374"/>
           <a:chOff x="4378157" y="1715613"/>
           <a:chExt cx="493518" cy="213006"/>
         </a:xfrm>
@@ -3929,8 +3946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4352164" y="2948109"/>
-          <a:ext cx="483121" cy="211335"/>
+          <a:off x="4378158" y="3044658"/>
+          <a:ext cx="486834" cy="219691"/>
           <a:chOff x="4378157" y="1715613"/>
           <a:chExt cx="493518" cy="213006"/>
         </a:xfrm>
@@ -4059,8 +4076,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4362190" y="3285661"/>
-          <a:ext cx="483121" cy="211335"/>
+          <a:off x="4388184" y="3398921"/>
+          <a:ext cx="486834" cy="219690"/>
           <a:chOff x="4378157" y="1715613"/>
           <a:chExt cx="493518" cy="213006"/>
         </a:xfrm>
@@ -4189,8 +4206,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4362190" y="3599819"/>
-          <a:ext cx="483121" cy="211335"/>
+          <a:off x="4388184" y="3729789"/>
+          <a:ext cx="486834" cy="219691"/>
           <a:chOff x="4378157" y="1715613"/>
           <a:chExt cx="493518" cy="213006"/>
         </a:xfrm>
@@ -4319,8 +4336,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4362190" y="3887241"/>
-          <a:ext cx="483121" cy="211335"/>
+          <a:off x="4388184" y="4033922"/>
+          <a:ext cx="486834" cy="219690"/>
           <a:chOff x="4378157" y="1715613"/>
           <a:chExt cx="493518" cy="213006"/>
         </a:xfrm>
@@ -4449,8 +4466,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4359326" y="4243413"/>
-          <a:ext cx="484792" cy="211335"/>
+          <a:off x="4385320" y="4406804"/>
+          <a:ext cx="488505" cy="219691"/>
           <a:chOff x="4378157" y="1715613"/>
           <a:chExt cx="493518" cy="213006"/>
         </a:xfrm>
@@ -4579,8 +4596,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4413754" y="5182306"/>
-          <a:ext cx="484792" cy="211335"/>
+          <a:off x="4439748" y="5395829"/>
+          <a:ext cx="488505" cy="219690"/>
           <a:chOff x="4378157" y="1715613"/>
           <a:chExt cx="493518" cy="213006"/>
         </a:xfrm>
@@ -4929,8 +4946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3947123" y="2621441"/>
-          <a:ext cx="202236" cy="238974"/>
+          <a:off x="3969403" y="2701280"/>
+          <a:ext cx="204093" cy="247329"/>
           <a:chOff x="3972182" y="2617146"/>
           <a:chExt cx="210614" cy="240354"/>
         </a:xfrm>
@@ -5356,8 +5373,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1111832" y="947069"/>
-          <a:ext cx="381226" cy="280094"/>
+          <a:off x="1117402" y="935000"/>
+          <a:ext cx="384940" cy="296804"/>
           <a:chOff x="1120165" y="917763"/>
           <a:chExt cx="386782" cy="282594"/>
         </a:xfrm>
@@ -5489,8 +5506,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1176190" y="1383365"/>
-          <a:ext cx="489852" cy="211335"/>
+          <a:off x="1183617" y="1396362"/>
+          <a:ext cx="491709" cy="219690"/>
           <a:chOff x="4378157" y="1715613"/>
           <a:chExt cx="493518" cy="213006"/>
         </a:xfrm>
@@ -5810,8 +5827,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1708335" y="1544304"/>
-          <a:ext cx="367222" cy="247349"/>
+          <a:off x="1719476" y="1565656"/>
+          <a:ext cx="369078" cy="255704"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -6446,8 +6463,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1709208" y="1880306"/>
-          <a:ext cx="367222" cy="247349"/>
+          <a:off x="1720349" y="1918368"/>
+          <a:ext cx="369078" cy="255705"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -6712,8 +6729,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3949782" y="2975070"/>
-          <a:ext cx="211422" cy="229236"/>
+          <a:off x="3972062" y="3071619"/>
+          <a:ext cx="213279" cy="237592"/>
           <a:chOff x="3950615" y="2972014"/>
           <a:chExt cx="214200" cy="230486"/>
         </a:xfrm>
@@ -7569,8 +7586,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1881481" y="2218972"/>
-          <a:ext cx="367222" cy="246173"/>
+          <a:off x="1892622" y="2273745"/>
+          <a:ext cx="369078" cy="262883"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -7701,8 +7718,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1695215" y="2552464"/>
-          <a:ext cx="367222" cy="246174"/>
+          <a:off x="1706356" y="2623947"/>
+          <a:ext cx="369078" cy="262885"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -7833,8 +7850,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1706504" y="2914180"/>
-          <a:ext cx="367222" cy="246173"/>
+          <a:off x="1717645" y="3002374"/>
+          <a:ext cx="369078" cy="262884"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -7965,8 +7982,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1708385" y="3279423"/>
-          <a:ext cx="367222" cy="247349"/>
+          <a:off x="1719526" y="3392683"/>
+          <a:ext cx="369078" cy="255704"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -8097,8 +8114,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2906890" y="3614797"/>
-          <a:ext cx="367220" cy="247349"/>
+          <a:off x="2925457" y="3744767"/>
+          <a:ext cx="369077" cy="255705"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -8229,8 +8246,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2908771" y="3910660"/>
-          <a:ext cx="367220" cy="247349"/>
+          <a:off x="2927338" y="4057341"/>
+          <a:ext cx="369077" cy="255704"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -8361,8 +8378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1744133" y="4141847"/>
-          <a:ext cx="367222" cy="246173"/>
+          <a:off x="1755274" y="4296883"/>
+          <a:ext cx="369078" cy="262884"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -8493,8 +8510,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1669815" y="4829528"/>
-          <a:ext cx="362518" cy="246173"/>
+          <a:off x="1679099" y="5017985"/>
+          <a:ext cx="366231" cy="262884"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -8625,8 +8642,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4362685" y="5538612"/>
-          <a:ext cx="404518" cy="177564"/>
+          <a:off x="4388679" y="5768845"/>
+          <a:ext cx="406375" cy="185920"/>
           <a:chOff x="849021" y="1284146"/>
           <a:chExt cx="166446" cy="271951"/>
         </a:xfrm>
@@ -8757,8 +8774,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="474134" y="6691254"/>
-          <a:ext cx="367220" cy="246174"/>
+          <a:off x="475991" y="6979974"/>
+          <a:ext cx="369077" cy="262885"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -8889,8 +8906,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="358423" y="6118107"/>
-          <a:ext cx="367220" cy="247349"/>
+          <a:off x="360280" y="6381762"/>
+          <a:ext cx="369077" cy="255704"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -9021,8 +9038,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4376797" y="5827890"/>
-          <a:ext cx="404518" cy="177564"/>
+          <a:off x="4402791" y="6074834"/>
+          <a:ext cx="406375" cy="185919"/>
           <a:chOff x="849021" y="1284146"/>
           <a:chExt cx="166446" cy="271951"/>
         </a:xfrm>
@@ -9153,8 +9170,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1279406" y="1164167"/>
-          <a:ext cx="329260" cy="199907"/>
+          <a:off x="1286833" y="1160453"/>
+          <a:ext cx="331117" cy="216618"/>
           <a:chOff x="849021" y="1284146"/>
           <a:chExt cx="166446" cy="271951"/>
         </a:xfrm>
@@ -9285,8 +9302,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2591742" y="6756870"/>
-          <a:ext cx="367220" cy="247350"/>
+          <a:off x="2608453" y="7053946"/>
+          <a:ext cx="369076" cy="255705"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -9760,8 +9777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="36" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="38" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -9777,45 +9794,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -9857,153 +9874,153 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="25" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="25" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="25" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="25" t="s">
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="25" t="s">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="25" t="s">
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="25" t="s">
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="27"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="60"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="44" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="46" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="44" t="s">
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="44" t="s">
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="32" t="s">
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="32" t="s">
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="34"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="36"/>
     </row>
     <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="37"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="39"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -10639,7 +10656,7 @@
         <v>5</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
@@ -10680,7 +10697,7 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
@@ -10843,7 +10860,7 @@
         <v>7</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -10925,7 +10942,7 @@
         <v>8</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
@@ -11005,7 +11022,7 @@
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
@@ -11087,7 +11104,7 @@
         <v>9</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
@@ -11162,21 +11179,9 @@
       <c r="R34" s="10"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
-      <c r="U34" s="9" t="s">
+      <c r="U34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
       <c r="AH34" s="9"/>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9"/>
@@ -11234,7 +11239,9 @@
       <c r="R36" s="10"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="U36" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
@@ -11310,7 +11317,9 @@
       <c r="R38" s="10"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
+      <c r="U38" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
@@ -11348,19 +11357,6 @@
       <c r="R39" s="10"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
       <c r="AH39" s="9"/>
       <c r="AI39" s="9"/>
       <c r="AJ39" s="9"/>
@@ -11386,7 +11382,9 @@
       <c r="R40" s="10"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
+      <c r="U40" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
@@ -11533,8 +11531,8 @@
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="10"/>
       <c r="S44" s="9"/>
@@ -11675,59 +11673,59 @@
       <c r="AK47" s="16"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="32" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="32" t="s">
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="32" t="s">
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="31" t="s">
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R48" s="31"/>
-      <c r="S48" s="32" t="s">
+      <c r="R48" s="26"/>
+      <c r="S48" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="T48" s="33"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="32" t="s">
+      <c r="T48" s="35"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="W48" s="33"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="32" t="s">
+      <c r="W48" s="35"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="33"/>
-      <c r="AF48" s="33"/>
-      <c r="AG48" s="33"/>
-      <c r="AH48" s="33"/>
-      <c r="AI48" s="33"/>
-      <c r="AJ48" s="33"/>
-      <c r="AK48" s="34"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="36"/>
       <c r="AL48" s="23"/>
       <c r="AM48" s="23"/>
       <c r="AN48" s="23"/>
@@ -11736,43 +11734,43 @@
       <c r="AQ48" s="23"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="35"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="36"/>
-      <c r="AI49" s="36"/>
-      <c r="AJ49" s="36"/>
-      <c r="AK49" s="37"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="38"/>
+      <c r="AB49" s="38"/>
+      <c r="AC49" s="38"/>
+      <c r="AD49" s="38"/>
+      <c r="AE49" s="38"/>
+      <c r="AF49" s="38"/>
+      <c r="AG49" s="38"/>
+      <c r="AH49" s="38"/>
+      <c r="AI49" s="38"/>
+      <c r="AJ49" s="38"/>
+      <c r="AK49" s="39"/>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23"/>
       <c r="AN49" s="23"/>
@@ -11781,61 +11779,61 @@
       <c r="AQ49" s="23"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="28">
+      <c r="A50" s="24">
         <v>1</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="55" t="s">
+      <c r="B50" s="25"/>
+      <c r="C50" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="28" t="s">
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="28" t="s">
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N50" s="29"/>
-      <c r="O50" s="28" t="s">
+      <c r="N50" s="25"/>
+      <c r="O50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="31" t="s">
+      <c r="P50" s="25"/>
+      <c r="Q50" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R50" s="31"/>
-      <c r="S50" s="28" t="s">
+      <c r="R50" s="26"/>
+      <c r="S50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T50" s="30"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="28" t="s">
+      <c r="T50" s="27"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W50" s="30"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="55" t="s">
+      <c r="W50" s="27"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="56"/>
-      <c r="AD50" s="56"/>
-      <c r="AE50" s="56"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="56"/>
-      <c r="AH50" s="56"/>
-      <c r="AI50" s="56"/>
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="57"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="30"/>
       <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
       <c r="AN50" s="23"/>
@@ -11844,59 +11842,59 @@
       <c r="AQ50" s="23"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="28">
+      <c r="A51" s="24">
         <v>2</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="55" t="s">
+      <c r="B51" s="25"/>
+      <c r="C51" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="28" t="s">
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="52" t="s">
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="31" t="s">
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R51" s="31"/>
-      <c r="S51" s="28" t="s">
+      <c r="R51" s="26"/>
+      <c r="S51" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T51" s="30"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="28" t="s">
+      <c r="T51" s="27"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W51" s="30"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="55" t="s">
+      <c r="W51" s="27"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="56"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="56"/>
-      <c r="AH51" s="56"/>
-      <c r="AI51" s="56"/>
-      <c r="AJ51" s="56"/>
-      <c r="AK51" s="57"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29"/>
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="29"/>
+      <c r="AK51" s="30"/>
       <c r="AL51" s="23"/>
       <c r="AM51" s="23"/>
       <c r="AN51" s="23"/>
@@ -11905,59 +11903,59 @@
       <c r="AQ51" s="23"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="28">
+      <c r="A52" s="24">
         <v>3</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="55" t="s">
+      <c r="B52" s="25"/>
+      <c r="C52" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="28" t="s">
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="52" t="s">
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="31" t="s">
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R52" s="31"/>
-      <c r="S52" s="28" t="s">
+      <c r="R52" s="26"/>
+      <c r="S52" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T52" s="30"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="28" t="s">
+      <c r="T52" s="27"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W52" s="30"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="55" t="s">
+      <c r="W52" s="27"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
-      <c r="AB52" s="56"/>
-      <c r="AC52" s="56"/>
-      <c r="AD52" s="56"/>
-      <c r="AE52" s="56"/>
-      <c r="AF52" s="56"/>
-      <c r="AG52" s="56"/>
-      <c r="AH52" s="56"/>
-      <c r="AI52" s="56"/>
-      <c r="AJ52" s="56"/>
-      <c r="AK52" s="57"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="29"/>
+      <c r="AI52" s="29"/>
+      <c r="AJ52" s="29"/>
+      <c r="AK52" s="30"/>
       <c r="AL52" s="23"/>
       <c r="AM52" s="23"/>
       <c r="AN52" s="23"/>
@@ -11966,61 +11964,61 @@
       <c r="AQ52" s="23"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="28">
+      <c r="A53" s="24">
         <v>4</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="55" t="s">
+      <c r="B53" s="25"/>
+      <c r="C53" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="28" t="s">
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="28" t="s">
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N53" s="29"/>
-      <c r="O53" s="28" t="s">
+      <c r="N53" s="25"/>
+      <c r="O53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="28" t="s">
+      <c r="P53" s="25"/>
+      <c r="Q53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R53" s="29"/>
-      <c r="S53" s="28" t="s">
+      <c r="R53" s="25"/>
+      <c r="S53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T53" s="30"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="28" t="s">
+      <c r="T53" s="27"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W53" s="30"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="55" t="s">
+      <c r="W53" s="27"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
-      <c r="AB53" s="56"/>
-      <c r="AC53" s="56"/>
-      <c r="AD53" s="56"/>
-      <c r="AE53" s="56"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="56"/>
-      <c r="AH53" s="56"/>
-      <c r="AI53" s="56"/>
-      <c r="AJ53" s="56"/>
-      <c r="AK53" s="57"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="29"/>
+      <c r="AF53" s="29"/>
+      <c r="AG53" s="29"/>
+      <c r="AH53" s="29"/>
+      <c r="AI53" s="29"/>
+      <c r="AJ53" s="29"/>
+      <c r="AK53" s="30"/>
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
       <c r="AN53" s="23"/>
@@ -12029,61 +12027,61 @@
       <c r="AQ53" s="23"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="28">
+      <c r="A54" s="24">
         <v>5</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="55" t="s">
+      <c r="B54" s="25"/>
+      <c r="C54" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="28" t="s">
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="28" t="s">
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N54" s="29"/>
-      <c r="O54" s="28" t="s">
+      <c r="N54" s="25"/>
+      <c r="O54" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="31" t="s">
+      <c r="P54" s="25"/>
+      <c r="Q54" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R54" s="31"/>
-      <c r="S54" s="28" t="s">
+      <c r="R54" s="26"/>
+      <c r="S54" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T54" s="30"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="28" t="s">
+      <c r="T54" s="27"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W54" s="30"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="55" t="s">
+      <c r="W54" s="27"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="56"/>
-      <c r="AB54" s="56"/>
-      <c r="AC54" s="56"/>
-      <c r="AD54" s="56"/>
-      <c r="AE54" s="56"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="56"/>
-      <c r="AH54" s="56"/>
-      <c r="AI54" s="56"/>
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="57"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="29"/>
+      <c r="AF54" s="29"/>
+      <c r="AG54" s="29"/>
+      <c r="AH54" s="29"/>
+      <c r="AI54" s="29"/>
+      <c r="AJ54" s="29"/>
+      <c r="AK54" s="30"/>
       <c r="AL54" s="23"/>
       <c r="AM54" s="23"/>
       <c r="AN54" s="23"/>
@@ -12092,61 +12090,61 @@
       <c r="AQ54" s="23"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="28">
+      <c r="A55" s="24">
         <v>6</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="55" t="s">
+      <c r="B55" s="25"/>
+      <c r="C55" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="28" t="s">
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="28" t="s">
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="29"/>
-      <c r="O55" s="28" t="s">
+      <c r="N55" s="25"/>
+      <c r="O55" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="31" t="s">
+      <c r="P55" s="25"/>
+      <c r="Q55" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R55" s="31"/>
-      <c r="S55" s="28" t="s">
+      <c r="R55" s="26"/>
+      <c r="S55" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T55" s="30"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="28" t="s">
+      <c r="T55" s="27"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W55" s="30"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="55" t="s">
+      <c r="W55" s="27"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-      <c r="AC55" s="56"/>
-      <c r="AD55" s="56"/>
-      <c r="AE55" s="56"/>
-      <c r="AF55" s="56"/>
-      <c r="AG55" s="56"/>
-      <c r="AH55" s="56"/>
-      <c r="AI55" s="56"/>
-      <c r="AJ55" s="56"/>
-      <c r="AK55" s="57"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
+      <c r="AG55" s="29"/>
+      <c r="AH55" s="29"/>
+      <c r="AI55" s="29"/>
+      <c r="AJ55" s="29"/>
+      <c r="AK55" s="30"/>
       <c r="AL55" s="23"/>
       <c r="AM55" s="23"/>
       <c r="AN55" s="23"/>
@@ -12155,61 +12153,61 @@
       <c r="AQ55" s="23"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="28">
+      <c r="A56" s="24">
         <v>7</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="58" t="s">
+      <c r="B56" s="25"/>
+      <c r="C56" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="28" t="s">
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="31" t="s">
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="31"/>
-      <c r="O56" s="28" t="s">
+      <c r="N56" s="26"/>
+      <c r="O56" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="31" t="s">
+      <c r="P56" s="25"/>
+      <c r="Q56" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R56" s="31"/>
-      <c r="S56" s="28" t="s">
+      <c r="R56" s="26"/>
+      <c r="S56" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T56" s="30"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="28" t="s">
+      <c r="T56" s="27"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W56" s="30"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="55" t="s">
+      <c r="W56" s="27"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="Z56" s="56"/>
-      <c r="AA56" s="56"/>
-      <c r="AB56" s="56"/>
-      <c r="AC56" s="56"/>
-      <c r="AD56" s="56"/>
-      <c r="AE56" s="56"/>
-      <c r="AF56" s="56"/>
-      <c r="AG56" s="56"/>
-      <c r="AH56" s="56"/>
-      <c r="AI56" s="56"/>
-      <c r="AJ56" s="56"/>
-      <c r="AK56" s="57"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+      <c r="AF56" s="29"/>
+      <c r="AG56" s="29"/>
+      <c r="AH56" s="29"/>
+      <c r="AI56" s="29"/>
+      <c r="AJ56" s="29"/>
+      <c r="AK56" s="30"/>
       <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
       <c r="AN56" s="23"/>
@@ -12218,61 +12216,61 @@
       <c r="AQ56" s="23"/>
     </row>
     <row r="57" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A57" s="28">
+      <c r="A57" s="24">
         <v>8</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="58" t="s">
+      <c r="B57" s="25"/>
+      <c r="C57" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="28" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="31" t="s">
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="28" t="s">
+      <c r="N57" s="26"/>
+      <c r="O57" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="31" t="s">
+      <c r="P57" s="25"/>
+      <c r="Q57" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R57" s="31"/>
-      <c r="S57" s="28" t="s">
+      <c r="R57" s="26"/>
+      <c r="S57" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T57" s="30"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="28" t="s">
+      <c r="T57" s="27"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W57" s="30"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="55" t="s">
+      <c r="W57" s="27"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="Z57" s="56"/>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="56"/>
-      <c r="AC57" s="56"/>
-      <c r="AD57" s="56"/>
-      <c r="AE57" s="56"/>
-      <c r="AF57" s="56"/>
-      <c r="AG57" s="56"/>
-      <c r="AH57" s="56"/>
-      <c r="AI57" s="56"/>
-      <c r="AJ57" s="56"/>
-      <c r="AK57" s="57"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="29"/>
+      <c r="AH57" s="29"/>
+      <c r="AI57" s="29"/>
+      <c r="AJ57" s="29"/>
+      <c r="AK57" s="30"/>
       <c r="AL57" s="23"/>
       <c r="AM57" s="23"/>
       <c r="AN57" s="23"/>
@@ -12281,61 +12279,61 @@
       <c r="AQ57" s="23"/>
     </row>
     <row r="58" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A58" s="28">
+      <c r="A58" s="24">
         <v>9</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="58" t="s">
+      <c r="B58" s="25"/>
+      <c r="C58" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="28" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="31" t="s">
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N58" s="31"/>
-      <c r="O58" s="28" t="s">
+      <c r="N58" s="26"/>
+      <c r="O58" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="31" t="s">
+      <c r="P58" s="25"/>
+      <c r="Q58" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R58" s="31"/>
-      <c r="S58" s="28" t="s">
+      <c r="R58" s="26"/>
+      <c r="S58" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T58" s="30"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="28" t="s">
+      <c r="T58" s="27"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W58" s="30"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="55" t="s">
+      <c r="W58" s="27"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="Z58" s="56"/>
-      <c r="AA58" s="56"/>
-      <c r="AB58" s="56"/>
-      <c r="AC58" s="56"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="56"/>
-      <c r="AF58" s="56"/>
-      <c r="AG58" s="56"/>
-      <c r="AH58" s="56"/>
-      <c r="AI58" s="56"/>
-      <c r="AJ58" s="56"/>
-      <c r="AK58" s="57"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
+      <c r="AE58" s="29"/>
+      <c r="AF58" s="29"/>
+      <c r="AG58" s="29"/>
+      <c r="AH58" s="29"/>
+      <c r="AI58" s="29"/>
+      <c r="AJ58" s="29"/>
+      <c r="AK58" s="30"/>
       <c r="AL58" s="23"/>
       <c r="AM58" s="23"/>
       <c r="AN58" s="23"/>
@@ -12344,483 +12342,564 @@
       <c r="AQ58" s="23"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A59" s="28">
+      <c r="A59" s="24">
         <v>10</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="59" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="28" t="s">
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="31" t="s">
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N59" s="31"/>
-      <c r="O59" s="28" t="s">
+      <c r="N59" s="26"/>
+      <c r="O59" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="31" t="s">
+      <c r="P59" s="25"/>
+      <c r="Q59" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R59" s="31"/>
-      <c r="S59" s="28" t="s">
+      <c r="R59" s="26"/>
+      <c r="S59" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T59" s="30"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="28" t="s">
+      <c r="T59" s="27"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W59" s="30"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="59" t="s">
+      <c r="W59" s="27"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="60"/>
-      <c r="AB59" s="60"/>
-      <c r="AC59" s="60"/>
-      <c r="AD59" s="60"/>
-      <c r="AE59" s="60"/>
-      <c r="AF59" s="60"/>
-      <c r="AG59" s="60"/>
-      <c r="AH59" s="60"/>
-      <c r="AI59" s="60"/>
-      <c r="AJ59" s="60"/>
-      <c r="AK59" s="61"/>
+      <c r="Z59" s="41"/>
+      <c r="AA59" s="41"/>
+      <c r="AB59" s="41"/>
+      <c r="AC59" s="41"/>
+      <c r="AD59" s="41"/>
+      <c r="AE59" s="41"/>
+      <c r="AF59" s="41"/>
+      <c r="AG59" s="41"/>
+      <c r="AH59" s="41"/>
+      <c r="AI59" s="41"/>
+      <c r="AJ59" s="41"/>
+      <c r="AK59" s="42"/>
     </row>
     <row r="60" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A60" s="28">
+      <c r="A60" s="24">
         <v>11</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="59" t="s">
+      <c r="B60" s="25"/>
+      <c r="C60" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="28" t="s">
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="52" t="s">
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="31" t="s">
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R60" s="31"/>
-      <c r="S60" s="28" t="s">
+      <c r="R60" s="26"/>
+      <c r="S60" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T60" s="30"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="28" t="s">
+      <c r="T60" s="27"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W60" s="30"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="59" t="s">
+      <c r="W60" s="27"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="Z60" s="60"/>
-      <c r="AA60" s="60"/>
-      <c r="AB60" s="60"/>
-      <c r="AC60" s="60"/>
-      <c r="AD60" s="60"/>
-      <c r="AE60" s="60"/>
-      <c r="AF60" s="60"/>
-      <c r="AG60" s="60"/>
-      <c r="AH60" s="60"/>
-      <c r="AI60" s="60"/>
-      <c r="AJ60" s="60"/>
-      <c r="AK60" s="61"/>
+      <c r="Z60" s="41"/>
+      <c r="AA60" s="41"/>
+      <c r="AB60" s="41"/>
+      <c r="AC60" s="41"/>
+      <c r="AD60" s="41"/>
+      <c r="AE60" s="41"/>
+      <c r="AF60" s="41"/>
+      <c r="AG60" s="41"/>
+      <c r="AH60" s="41"/>
+      <c r="AI60" s="41"/>
+      <c r="AJ60" s="41"/>
+      <c r="AK60" s="42"/>
     </row>
     <row r="61" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A61" s="28">
+      <c r="A61" s="24">
         <v>12</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="59" t="s">
+      <c r="B61" s="25"/>
+      <c r="C61" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="31" t="s">
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31" t="s">
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N61" s="31"/>
-      <c r="O61" s="28" t="s">
+      <c r="N61" s="26"/>
+      <c r="O61" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="31" t="s">
+      <c r="P61" s="25"/>
+      <c r="Q61" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R61" s="31"/>
-      <c r="S61" s="28" t="s">
+      <c r="R61" s="26"/>
+      <c r="S61" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T61" s="30"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="28" t="s">
+      <c r="T61" s="27"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W61" s="30"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="59" t="s">
+      <c r="W61" s="27"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Z61" s="60"/>
-      <c r="AA61" s="60"/>
-      <c r="AB61" s="60"/>
-      <c r="AC61" s="60"/>
-      <c r="AD61" s="60"/>
-      <c r="AE61" s="60"/>
-      <c r="AF61" s="60"/>
-      <c r="AG61" s="60"/>
-      <c r="AH61" s="60"/>
-      <c r="AI61" s="60"/>
-      <c r="AJ61" s="60"/>
-      <c r="AK61" s="61"/>
+      <c r="Z61" s="41"/>
+      <c r="AA61" s="41"/>
+      <c r="AB61" s="41"/>
+      <c r="AC61" s="41"/>
+      <c r="AD61" s="41"/>
+      <c r="AE61" s="41"/>
+      <c r="AF61" s="41"/>
+      <c r="AG61" s="41"/>
+      <c r="AH61" s="41"/>
+      <c r="AI61" s="41"/>
+      <c r="AJ61" s="41"/>
+      <c r="AK61" s="42"/>
     </row>
     <row r="62" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A62" s="28">
+      <c r="A62" s="24">
         <v>13</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="59" t="s">
+      <c r="B62" s="25"/>
+      <c r="C62" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="31" t="s">
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31" t="s">
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N62" s="31"/>
-      <c r="O62" s="28" t="s">
+      <c r="N62" s="26"/>
+      <c r="O62" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="31" t="s">
+      <c r="P62" s="25"/>
+      <c r="Q62" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R62" s="31"/>
-      <c r="S62" s="28" t="s">
+      <c r="R62" s="26"/>
+      <c r="S62" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T62" s="30"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="28" t="s">
+      <c r="T62" s="27"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W62" s="30"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="59" t="s">
+      <c r="W62" s="27"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="Z62" s="60"/>
-      <c r="AA62" s="60"/>
-      <c r="AB62" s="60"/>
-      <c r="AC62" s="60"/>
-      <c r="AD62" s="60"/>
-      <c r="AE62" s="60"/>
-      <c r="AF62" s="60"/>
-      <c r="AG62" s="60"/>
-      <c r="AH62" s="60"/>
-      <c r="AI62" s="60"/>
-      <c r="AJ62" s="60"/>
-      <c r="AK62" s="61"/>
+      <c r="Z62" s="41"/>
+      <c r="AA62" s="41"/>
+      <c r="AB62" s="41"/>
+      <c r="AC62" s="41"/>
+      <c r="AD62" s="41"/>
+      <c r="AE62" s="41"/>
+      <c r="AF62" s="41"/>
+      <c r="AG62" s="41"/>
+      <c r="AH62" s="41"/>
+      <c r="AI62" s="41"/>
+      <c r="AJ62" s="41"/>
+      <c r="AK62" s="42"/>
     </row>
     <row r="63" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A63" s="28">
+      <c r="A63" s="24">
         <v>14</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="59" t="s">
+      <c r="B63" s="25"/>
+      <c r="C63" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="52" t="s">
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="52" t="s">
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="31" t="s">
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R63" s="31"/>
-      <c r="S63" s="28" t="s">
+      <c r="R63" s="26"/>
+      <c r="S63" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T63" s="30"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="28" t="s">
+      <c r="T63" s="27"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W63" s="30"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="59" t="s">
+      <c r="W63" s="27"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="Z63" s="60"/>
-      <c r="AA63" s="60"/>
-      <c r="AB63" s="60"/>
-      <c r="AC63" s="60"/>
-      <c r="AD63" s="60"/>
-      <c r="AE63" s="60"/>
-      <c r="AF63" s="60"/>
-      <c r="AG63" s="60"/>
-      <c r="AH63" s="60"/>
-      <c r="AI63" s="60"/>
-      <c r="AJ63" s="60"/>
-      <c r="AK63" s="61"/>
+      <c r="Z63" s="41"/>
+      <c r="AA63" s="41"/>
+      <c r="AB63" s="41"/>
+      <c r="AC63" s="41"/>
+      <c r="AD63" s="41"/>
+      <c r="AE63" s="41"/>
+      <c r="AF63" s="41"/>
+      <c r="AG63" s="41"/>
+      <c r="AH63" s="41"/>
+      <c r="AI63" s="41"/>
+      <c r="AJ63" s="41"/>
+      <c r="AK63" s="42"/>
     </row>
     <row r="64" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A64" s="28">
+      <c r="A64" s="24">
         <v>15</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="58" t="s">
+      <c r="B64" s="25"/>
+      <c r="C64" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="31" t="s">
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="52" t="s">
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="31" t="s">
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R64" s="31"/>
-      <c r="S64" s="28" t="s">
+      <c r="R64" s="26"/>
+      <c r="S64" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T64" s="30"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="28" t="s">
+      <c r="T64" s="27"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W64" s="30"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="55" t="s">
+      <c r="W64" s="27"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="Z64" s="56"/>
-      <c r="AA64" s="56"/>
-      <c r="AB64" s="56"/>
-      <c r="AC64" s="56"/>
-      <c r="AD64" s="56"/>
-      <c r="AE64" s="56"/>
-      <c r="AF64" s="56"/>
-      <c r="AG64" s="56"/>
-      <c r="AH64" s="56"/>
-      <c r="AI64" s="56"/>
-      <c r="AJ64" s="56"/>
-      <c r="AK64" s="57"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="29"/>
+      <c r="AC64" s="29"/>
+      <c r="AD64" s="29"/>
+      <c r="AE64" s="29"/>
+      <c r="AF64" s="29"/>
+      <c r="AG64" s="29"/>
+      <c r="AH64" s="29"/>
+      <c r="AI64" s="29"/>
+      <c r="AJ64" s="29"/>
+      <c r="AK64" s="30"/>
     </row>
     <row r="65" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A65" s="28">
+      <c r="A65" s="24">
         <v>16</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="58" t="s">
+      <c r="B65" s="25"/>
+      <c r="C65" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="31" t="s">
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="52" t="s">
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="31" t="s">
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R65" s="31"/>
-      <c r="S65" s="28" t="s">
+      <c r="R65" s="26"/>
+      <c r="S65" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T65" s="30"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="28" t="s">
+      <c r="T65" s="27"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W65" s="30"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="55" t="s">
+      <c r="W65" s="27"/>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="Z65" s="56"/>
-      <c r="AA65" s="56"/>
-      <c r="AB65" s="56"/>
-      <c r="AC65" s="56"/>
-      <c r="AD65" s="56"/>
-      <c r="AE65" s="56"/>
-      <c r="AF65" s="56"/>
-      <c r="AG65" s="56"/>
-      <c r="AH65" s="56"/>
-      <c r="AI65" s="56"/>
-      <c r="AJ65" s="56"/>
-      <c r="AK65" s="57"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="29"/>
+      <c r="AE65" s="29"/>
+      <c r="AF65" s="29"/>
+      <c r="AG65" s="29"/>
+      <c r="AH65" s="29"/>
+      <c r="AI65" s="29"/>
+      <c r="AJ65" s="29"/>
+      <c r="AK65" s="30"/>
     </row>
     <row r="66" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A66" s="28">
+      <c r="A66" s="24">
         <v>17</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="58" t="s">
+      <c r="B66" s="25"/>
+      <c r="C66" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="31" t="s">
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="52" t="s">
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="31" t="s">
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R66" s="31"/>
-      <c r="S66" s="28" t="s">
+      <c r="R66" s="26"/>
+      <c r="S66" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T66" s="30"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="28" t="s">
+      <c r="T66" s="27"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W66" s="30"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="55" t="s">
+      <c r="W66" s="27"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="Z66" s="56"/>
-      <c r="AA66" s="56"/>
-      <c r="AB66" s="56"/>
-      <c r="AC66" s="56"/>
-      <c r="AD66" s="56"/>
-      <c r="AE66" s="56"/>
-      <c r="AF66" s="56"/>
-      <c r="AG66" s="56"/>
-      <c r="AH66" s="56"/>
-      <c r="AI66" s="56"/>
-      <c r="AJ66" s="56"/>
-      <c r="AK66" s="57"/>
+      <c r="Z66" s="29"/>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="29"/>
+      <c r="AE66" s="29"/>
+      <c r="AF66" s="29"/>
+      <c r="AG66" s="29"/>
+      <c r="AH66" s="29"/>
+      <c r="AI66" s="29"/>
+      <c r="AJ66" s="29"/>
+      <c r="AK66" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="172">
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AK66"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AK65"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AK64"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="Y58:AK58"/>
-    <mergeCell ref="Y57:AK57"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AF4:AH5"/>
+    <mergeCell ref="AI4:AK5"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:H49"/>
+    <mergeCell ref="I48:L49"/>
+    <mergeCell ref="Q48:R49"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="P4:R5"/>
+    <mergeCell ref="S4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="AC4:AE5"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AK60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AK59"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AK62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AK61"/>
     <mergeCell ref="Y48:AK49"/>
     <mergeCell ref="Y52:AK52"/>
     <mergeCell ref="Y51:AK51"/>
@@ -12841,6 +12920,21 @@
     <mergeCell ref="M48:P49"/>
     <mergeCell ref="M51:P51"/>
     <mergeCell ref="M52:P52"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AK64"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="Y58:AK58"/>
+    <mergeCell ref="Y57:AK57"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="Y54:AK54"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="C63:H63"/>
     <mergeCell ref="I63:L63"/>
@@ -12851,118 +12945,22 @@
     <mergeCell ref="M63:P63"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="C62:H62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AK62"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AK61"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AK60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AK59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="AF4:AH5"/>
-    <mergeCell ref="AI4:AK5"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:H49"/>
-    <mergeCell ref="I48:L49"/>
-    <mergeCell ref="Q48:R49"/>
-    <mergeCell ref="A4:H5"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="P4:R5"/>
-    <mergeCell ref="S4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="AC4:AE5"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AK66"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AK65"/>
+    <mergeCell ref="M65:P65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
